--- a/database/industries/palayesh/shetran/product/quarterly_seprated.xlsx
+++ b/database/industries/palayesh/shetran/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505AF1D0-C2B7-4A90-B760-30DF7E811371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9796CE0A-1026-40F6-85D2-FA6D6AF022C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -691,12 +691,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -711,7 +711,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -728,7 +728,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -760,7 +760,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -809,7 +809,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -846,7 +846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -861,7 +861,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -887,37 +887,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>284910</v>
+        <v>236589</v>
       </c>
       <c r="F11" s="11">
-        <v>236589</v>
+        <v>241452</v>
       </c>
       <c r="G11" s="11">
-        <v>241452</v>
+        <v>237441</v>
       </c>
       <c r="H11" s="11">
-        <v>237441</v>
+        <v>195140</v>
       </c>
       <c r="I11" s="11">
-        <v>195140</v>
+        <v>216389</v>
       </c>
       <c r="J11" s="11">
-        <v>216389</v>
+        <v>243564</v>
       </c>
       <c r="K11" s="11">
-        <v>243564</v>
+        <v>211420</v>
       </c>
       <c r="L11" s="11">
-        <v>211420</v>
+        <v>270304</v>
       </c>
       <c r="M11" s="11">
-        <v>270304</v>
+        <v>271502</v>
       </c>
       <c r="N11" s="11">
-        <v>271502</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>292975</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -926,37 +926,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>19734</v>
+        <v>49606</v>
       </c>
       <c r="F12" s="13">
-        <v>49606</v>
+        <v>42830</v>
       </c>
       <c r="G12" s="13">
-        <v>42830</v>
+        <v>11121</v>
       </c>
       <c r="H12" s="13">
-        <v>11121</v>
+        <v>2806</v>
       </c>
       <c r="I12" s="13">
-        <v>2806</v>
+        <v>32700</v>
       </c>
       <c r="J12" s="13">
-        <v>32700</v>
+        <v>28358</v>
       </c>
       <c r="K12" s="13">
-        <v>28358</v>
+        <v>11057</v>
       </c>
       <c r="L12" s="13">
-        <v>11057</v>
+        <v>10476</v>
       </c>
       <c r="M12" s="13">
-        <v>10476</v>
+        <v>15020</v>
       </c>
       <c r="N12" s="13">
-        <v>15020</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26232</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -965,37 +965,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>6261</v>
+        <v>6031</v>
       </c>
       <c r="F13" s="11">
-        <v>6031</v>
+        <v>7066</v>
       </c>
       <c r="G13" s="11">
-        <v>7066</v>
+        <v>3357</v>
       </c>
       <c r="H13" s="11">
-        <v>3357</v>
+        <v>14646</v>
       </c>
       <c r="I13" s="11">
-        <v>14646</v>
+        <v>7375</v>
       </c>
       <c r="J13" s="11">
-        <v>7375</v>
+        <v>7349</v>
       </c>
       <c r="K13" s="11">
-        <v>7349</v>
+        <v>9302</v>
       </c>
       <c r="L13" s="11">
-        <v>9302</v>
+        <v>8252</v>
       </c>
       <c r="M13" s="11">
-        <v>8252</v>
+        <v>12617</v>
       </c>
       <c r="N13" s="11">
-        <v>12617</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7881</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
@@ -1004,37 +1004,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>133169</v>
+        <v>144293</v>
       </c>
       <c r="F14" s="13">
-        <v>144293</v>
+        <v>168417</v>
       </c>
       <c r="G14" s="13">
-        <v>168417</v>
+        <v>125581</v>
       </c>
       <c r="H14" s="13">
-        <v>125581</v>
+        <v>112640</v>
       </c>
       <c r="I14" s="13">
-        <v>112640</v>
+        <v>135780</v>
       </c>
       <c r="J14" s="13">
-        <v>135780</v>
+        <v>110503</v>
       </c>
       <c r="K14" s="13">
-        <v>110503</v>
+        <v>136513</v>
       </c>
       <c r="L14" s="13">
-        <v>136513</v>
+        <v>125300</v>
       </c>
       <c r="M14" s="13">
-        <v>125300</v>
+        <v>124367</v>
       </c>
       <c r="N14" s="13">
-        <v>124367</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>107107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1054,14 +1054,14 @@
       <c r="H15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>22</v>
+      <c r="I15" s="11">
+        <v>153</v>
       </c>
       <c r="J15" s="11">
-        <v>153</v>
+        <v>765</v>
       </c>
       <c r="K15" s="11">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="L15" s="11">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1082,37 +1082,37 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>24118</v>
+        <v>47309</v>
       </c>
       <c r="F16" s="13">
-        <v>47309</v>
+        <v>42786</v>
       </c>
       <c r="G16" s="13">
-        <v>42786</v>
+        <v>26616</v>
       </c>
       <c r="H16" s="13">
-        <v>26616</v>
+        <v>125081</v>
       </c>
       <c r="I16" s="13">
-        <v>125081</v>
+        <v>123043</v>
       </c>
       <c r="J16" s="13">
-        <v>123043</v>
+        <v>90728</v>
       </c>
       <c r="K16" s="13">
-        <v>90728</v>
+        <v>93040</v>
       </c>
       <c r="L16" s="13">
-        <v>93040</v>
+        <v>104260</v>
       </c>
       <c r="M16" s="13">
-        <v>104260</v>
+        <v>66543</v>
       </c>
       <c r="N16" s="13">
-        <v>66543</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>59035</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1121,37 +1121,37 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>3476</v>
+        <v>4379</v>
       </c>
       <c r="F17" s="11">
-        <v>4379</v>
+        <v>2497</v>
       </c>
       <c r="G17" s="11">
-        <v>2497</v>
+        <v>1627</v>
       </c>
       <c r="H17" s="11">
-        <v>1627</v>
+        <v>452</v>
       </c>
       <c r="I17" s="11">
-        <v>452</v>
+        <v>1021</v>
       </c>
       <c r="J17" s="11">
-        <v>1021</v>
+        <v>301</v>
       </c>
       <c r="K17" s="11">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="L17" s="11">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="M17" s="11">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="N17" s="11">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1160,37 +1160,37 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>382108</v>
+        <v>305096</v>
       </c>
       <c r="F18" s="13">
-        <v>305096</v>
+        <v>1309320</v>
       </c>
       <c r="G18" s="13">
-        <v>1309320</v>
+        <v>408436</v>
       </c>
       <c r="H18" s="13">
-        <v>408436</v>
+        <v>344021</v>
       </c>
       <c r="I18" s="13">
-        <v>344021</v>
+        <v>897148</v>
       </c>
       <c r="J18" s="13">
-        <v>897148</v>
+        <v>769640</v>
       </c>
       <c r="K18" s="13">
-        <v>769640</v>
+        <v>339500</v>
       </c>
       <c r="L18" s="13">
-        <v>339500</v>
+        <v>825439</v>
       </c>
       <c r="M18" s="13">
-        <v>825439</v>
+        <v>748633</v>
       </c>
       <c r="N18" s="13">
-        <v>748633</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>577670</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1199,37 +1199,37 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>722788</v>
+        <v>641424</v>
       </c>
       <c r="F19" s="11">
-        <v>641424</v>
+        <v>688131</v>
       </c>
       <c r="G19" s="11">
-        <v>688131</v>
+        <v>585150</v>
       </c>
       <c r="H19" s="11">
-        <v>585150</v>
+        <v>450100</v>
       </c>
       <c r="I19" s="11">
-        <v>450100</v>
+        <v>552178</v>
       </c>
       <c r="J19" s="11">
-        <v>552178</v>
+        <v>609656</v>
       </c>
       <c r="K19" s="11">
-        <v>609656</v>
+        <v>619992</v>
       </c>
       <c r="L19" s="11">
-        <v>619992</v>
+        <v>469545</v>
       </c>
       <c r="M19" s="11">
-        <v>469545</v>
+        <v>655771</v>
       </c>
       <c r="N19" s="11">
-        <v>655771</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>554277</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1238,37 +1238,37 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>8532</v>
+        <v>4208</v>
       </c>
       <c r="F20" s="13">
-        <v>4208</v>
+        <v>12726</v>
       </c>
       <c r="G20" s="13">
-        <v>12726</v>
+        <v>999</v>
       </c>
       <c r="H20" s="13">
-        <v>999</v>
+        <v>1585</v>
       </c>
       <c r="I20" s="13">
-        <v>1585</v>
+        <v>1686</v>
       </c>
       <c r="J20" s="13">
-        <v>1686</v>
+        <v>8908</v>
       </c>
       <c r="K20" s="13">
-        <v>8908</v>
+        <v>3204</v>
       </c>
       <c r="L20" s="13">
-        <v>3204</v>
+        <v>945</v>
       </c>
       <c r="M20" s="13">
-        <v>945</v>
+        <v>1809</v>
       </c>
       <c r="N20" s="13">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1277,37 +1277,37 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>123896</v>
+        <v>153648</v>
       </c>
       <c r="F21" s="11">
-        <v>153648</v>
+        <v>151368</v>
       </c>
       <c r="G21" s="11">
-        <v>151368</v>
+        <v>141782</v>
       </c>
       <c r="H21" s="11">
-        <v>141782</v>
+        <v>216953</v>
       </c>
       <c r="I21" s="11">
-        <v>216953</v>
+        <v>226820</v>
       </c>
       <c r="J21" s="11">
-        <v>226820</v>
+        <v>156148</v>
       </c>
       <c r="K21" s="11">
-        <v>156148</v>
+        <v>179634</v>
       </c>
       <c r="L21" s="11">
-        <v>179634</v>
+        <v>158790</v>
       </c>
       <c r="M21" s="11">
-        <v>158790</v>
+        <v>141600</v>
       </c>
       <c r="N21" s="11">
-        <v>141600</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>151337</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
@@ -1316,37 +1316,37 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>224896</v>
+        <v>214163</v>
       </c>
       <c r="F22" s="13">
-        <v>214163</v>
+        <v>228988</v>
       </c>
       <c r="G22" s="13">
-        <v>228988</v>
+        <v>187873</v>
       </c>
       <c r="H22" s="13">
-        <v>187873</v>
+        <v>199129</v>
       </c>
       <c r="I22" s="13">
-        <v>199129</v>
+        <v>219163</v>
       </c>
       <c r="J22" s="13">
-        <v>219163</v>
+        <v>217216</v>
       </c>
       <c r="K22" s="13">
-        <v>217216</v>
+        <v>204098</v>
       </c>
       <c r="L22" s="13">
-        <v>204098</v>
+        <v>235107</v>
       </c>
       <c r="M22" s="13">
-        <v>235107</v>
+        <v>231660</v>
       </c>
       <c r="N22" s="13">
-        <v>231660</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>238732</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1355,74 +1355,74 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>1219211</v>
+        <v>1260010</v>
       </c>
       <c r="F23" s="11">
-        <v>1260010</v>
+        <v>1459373</v>
       </c>
       <c r="G23" s="11">
-        <v>1459373</v>
+        <v>1105755</v>
       </c>
       <c r="H23" s="11">
-        <v>1105755</v>
+        <v>1009312</v>
       </c>
       <c r="I23" s="11">
-        <v>1009312</v>
+        <v>1311962</v>
       </c>
       <c r="J23" s="11">
-        <v>1311962</v>
+        <v>1275494</v>
       </c>
       <c r="K23" s="11">
-        <v>1275494</v>
+        <v>1245822</v>
       </c>
       <c r="L23" s="11">
-        <v>1245822</v>
+        <v>1334348</v>
       </c>
       <c r="M23" s="11">
-        <v>1334348</v>
+        <v>1448954</v>
       </c>
       <c r="N23" s="11">
-        <v>1448954</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1232379</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>3153099</v>
+        <v>3066756</v>
       </c>
       <c r="F24" s="15">
-        <v>3066756</v>
+        <v>4354954</v>
       </c>
       <c r="G24" s="15">
-        <v>4354954</v>
+        <v>2835738</v>
       </c>
       <c r="H24" s="15">
-        <v>2835738</v>
+        <v>2671865</v>
       </c>
       <c r="I24" s="15">
-        <v>2671865</v>
+        <v>3725418</v>
       </c>
       <c r="J24" s="15">
-        <v>3725418</v>
+        <v>3518630</v>
       </c>
       <c r="K24" s="15">
-        <v>3518630</v>
+        <v>3053712</v>
       </c>
       <c r="L24" s="15">
-        <v>3053712</v>
+        <v>3543058</v>
       </c>
       <c r="M24" s="15">
-        <v>3543058</v>
+        <v>3718609</v>
       </c>
       <c r="N24" s="15">
-        <v>3718609</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3254907</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
@@ -1465,8 +1465,8 @@
       <c r="J26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>22</v>
+      <c r="K26" s="11">
+        <v>0</v>
       </c>
       <c r="L26" s="11">
         <v>0</v>
@@ -1474,11 +1474,11 @@
       <c r="M26" s="11">
         <v>0</v>
       </c>
-      <c r="N26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>34</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>35</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
@@ -1583,8 +1583,8 @@
       <c r="F30" s="15">
         <v>0</v>
       </c>
-      <c r="G30" s="15">
-        <v>0</v>
+      <c r="G30" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>22</v>
@@ -1608,7 +1608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
         <v>38</v>
       </c>
@@ -1620,17 +1620,17 @@
       <c r="F31" s="19">
         <v>0</v>
       </c>
-      <c r="G31" s="19">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="19">
-        <v>0</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>22</v>
+      <c r="G31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="19">
+        <v>0</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="19">
+        <v>0</v>
       </c>
       <c r="K31" s="19">
         <v>0</v>
@@ -1645,44 +1645,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15">
-        <v>3153099</v>
+        <v>3066756</v>
       </c>
       <c r="F32" s="15">
-        <v>3066756</v>
+        <v>4354954</v>
       </c>
       <c r="G32" s="15">
-        <v>4354954</v>
+        <v>2835738</v>
       </c>
       <c r="H32" s="15">
-        <v>2835738</v>
+        <v>2671865</v>
       </c>
       <c r="I32" s="15">
-        <v>2671865</v>
+        <v>3725418</v>
       </c>
       <c r="J32" s="15">
-        <v>3725418</v>
+        <v>3518630</v>
       </c>
       <c r="K32" s="15">
-        <v>3518630</v>
+        <v>3053712</v>
       </c>
       <c r="L32" s="15">
-        <v>3053712</v>
+        <v>3543058</v>
       </c>
       <c r="M32" s="15">
-        <v>3543058</v>
+        <v>3718609</v>
       </c>
       <c r="N32" s="15">
-        <v>3718609</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3254907</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1697,7 +1697,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1712,7 +1712,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1727,7 +1727,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1779,7 +1779,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>41</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>16</v>
       </c>
@@ -1805,37 +1805,37 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>8884989</v>
+        <v>9995718</v>
       </c>
       <c r="F39" s="11">
-        <v>9995718</v>
+        <v>13760543</v>
       </c>
       <c r="G39" s="11">
-        <v>13760543</v>
+        <v>14753686</v>
       </c>
       <c r="H39" s="11">
-        <v>14753686</v>
+        <v>12575884</v>
       </c>
       <c r="I39" s="11">
-        <v>12575884</v>
+        <v>17615630</v>
       </c>
       <c r="J39" s="11">
-        <v>17615630</v>
+        <v>20001929</v>
       </c>
       <c r="K39" s="11">
-        <v>20001929</v>
+        <v>19937346</v>
       </c>
       <c r="L39" s="11">
-        <v>19937346</v>
+        <v>22375015</v>
       </c>
       <c r="M39" s="11">
-        <v>22375015</v>
+        <v>24114528</v>
       </c>
       <c r="N39" s="11">
-        <v>24114528</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26333881</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>18</v>
       </c>
@@ -1844,37 +1844,37 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>891967</v>
+        <v>3345050</v>
       </c>
       <c r="F40" s="13">
-        <v>3345050</v>
+        <v>2846100</v>
       </c>
       <c r="G40" s="13">
-        <v>2846100</v>
+        <v>1032611</v>
       </c>
       <c r="H40" s="13">
-        <v>1032611</v>
+        <v>321663</v>
       </c>
       <c r="I40" s="13">
-        <v>321663</v>
+        <v>3786714</v>
       </c>
       <c r="J40" s="13">
-        <v>3786714</v>
+        <v>4788186</v>
       </c>
       <c r="K40" s="13">
-        <v>4788186</v>
+        <v>2398614</v>
       </c>
       <c r="L40" s="13">
-        <v>2398614</v>
+        <v>2201445</v>
       </c>
       <c r="M40" s="13">
-        <v>2201445</v>
+        <v>2990909</v>
       </c>
       <c r="N40" s="13">
-        <v>2990909</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5077373</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>19</v>
       </c>
@@ -1883,37 +1883,37 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>84389</v>
+        <v>154649</v>
       </c>
       <c r="F41" s="11">
-        <v>154649</v>
+        <v>258985</v>
       </c>
       <c r="G41" s="11">
-        <v>258985</v>
+        <v>215595</v>
       </c>
       <c r="H41" s="11">
-        <v>215595</v>
+        <v>484905</v>
       </c>
       <c r="I41" s="11">
-        <v>484905</v>
+        <v>340863</v>
       </c>
       <c r="J41" s="11">
-        <v>340863</v>
+        <v>509658</v>
       </c>
       <c r="K41" s="11">
-        <v>509658</v>
+        <v>919779</v>
       </c>
       <c r="L41" s="11">
-        <v>919779</v>
+        <v>533292</v>
       </c>
       <c r="M41" s="11">
-        <v>533292</v>
+        <v>409875</v>
       </c>
       <c r="N41" s="11">
-        <v>409875</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>323285</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>20</v>
       </c>
@@ -1922,37 +1922,37 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>3754072</v>
+        <v>7184336</v>
       </c>
       <c r="F42" s="13">
-        <v>7184336</v>
+        <v>5976549</v>
       </c>
       <c r="G42" s="13">
-        <v>5976549</v>
+        <v>7478435</v>
       </c>
       <c r="H42" s="13">
-        <v>7478435</v>
+        <v>8714264</v>
       </c>
       <c r="I42" s="13">
-        <v>8714264</v>
+        <v>12820821</v>
       </c>
       <c r="J42" s="13">
-        <v>12820821</v>
+        <v>11775238</v>
       </c>
       <c r="K42" s="13">
-        <v>11775238</v>
+        <v>14659917</v>
       </c>
       <c r="L42" s="13">
-        <v>14659917</v>
+        <v>10869228</v>
       </c>
       <c r="M42" s="13">
-        <v>10869228</v>
+        <v>10544036</v>
       </c>
       <c r="N42" s="13">
-        <v>10544036</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9674228</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>21</v>
       </c>
@@ -1972,14 +1972,14 @@
       <c r="H43" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>22</v>
+      <c r="I43" s="11">
+        <v>16699</v>
       </c>
       <c r="J43" s="11">
-        <v>16699</v>
+        <v>87981</v>
       </c>
       <c r="K43" s="11">
-        <v>87981</v>
+        <v>0</v>
       </c>
       <c r="L43" s="11">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>23</v>
       </c>
@@ -2000,37 +2000,37 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>843130</v>
+        <v>2590041</v>
       </c>
       <c r="F44" s="13">
-        <v>2590041</v>
+        <v>3245506</v>
       </c>
       <c r="G44" s="13">
-        <v>3245506</v>
+        <v>2168498</v>
       </c>
       <c r="H44" s="13">
-        <v>2168498</v>
+        <v>9694376</v>
       </c>
       <c r="I44" s="13">
-        <v>9694376</v>
+        <v>11153991</v>
       </c>
       <c r="J44" s="13">
-        <v>11153991</v>
+        <v>10397736</v>
       </c>
       <c r="K44" s="13">
-        <v>10397736</v>
+        <v>11745348</v>
       </c>
       <c r="L44" s="13">
-        <v>11745348</v>
+        <v>12444885</v>
       </c>
       <c r="M44" s="13">
-        <v>12444885</v>
+        <v>7697929</v>
       </c>
       <c r="N44" s="13">
-        <v>7697929</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6927031</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>24</v>
       </c>
@@ -2039,37 +2039,37 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>155272</v>
+        <v>268295</v>
       </c>
       <c r="F45" s="11">
-        <v>268295</v>
+        <v>192553</v>
       </c>
       <c r="G45" s="11">
-        <v>192553</v>
+        <v>133485</v>
       </c>
       <c r="H45" s="11">
-        <v>133485</v>
+        <v>42829</v>
       </c>
       <c r="I45" s="11">
-        <v>42829</v>
+        <v>115867</v>
       </c>
       <c r="J45" s="11">
-        <v>115867</v>
+        <v>33333</v>
       </c>
       <c r="K45" s="11">
-        <v>33333</v>
+        <v>22554</v>
       </c>
       <c r="L45" s="11">
-        <v>22554</v>
+        <v>55160</v>
       </c>
       <c r="M45" s="11">
-        <v>55160</v>
+        <v>26474</v>
       </c>
       <c r="N45" s="11">
-        <v>26474</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51114</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>25</v>
       </c>
@@ -2078,37 +2078,37 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>13419890</v>
+        <v>15917181</v>
       </c>
       <c r="F46" s="13">
-        <v>15917181</v>
+        <v>76061388</v>
       </c>
       <c r="G46" s="13">
-        <v>76061388</v>
+        <v>31387666</v>
       </c>
       <c r="H46" s="13">
-        <v>31387666</v>
+        <v>31220579</v>
       </c>
       <c r="I46" s="13">
-        <v>31220579</v>
+        <v>87575801</v>
       </c>
       <c r="J46" s="13">
-        <v>87575801</v>
+        <v>85253507</v>
       </c>
       <c r="K46" s="13">
-        <v>85253507</v>
+        <v>49628460</v>
       </c>
       <c r="L46" s="13">
-        <v>49628460</v>
+        <v>99438276</v>
       </c>
       <c r="M46" s="13">
-        <v>99438276</v>
+        <v>66160552</v>
       </c>
       <c r="N46" s="13">
-        <v>66160552</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>55534434</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>26</v>
       </c>
@@ -2117,37 +2117,37 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>27096416</v>
+        <v>42655016</v>
       </c>
       <c r="F47" s="11">
-        <v>42655016</v>
+        <v>57440534</v>
       </c>
       <c r="G47" s="11">
-        <v>57440534</v>
+        <v>54299427</v>
       </c>
       <c r="H47" s="11">
-        <v>54299427</v>
+        <v>49926867</v>
       </c>
       <c r="I47" s="11">
-        <v>49926867</v>
+        <v>71277610</v>
       </c>
       <c r="J47" s="11">
-        <v>71277610</v>
+        <v>93538195</v>
       </c>
       <c r="K47" s="11">
-        <v>93538195</v>
+        <v>122407737</v>
       </c>
       <c r="L47" s="11">
-        <v>122407737</v>
+        <v>79247903</v>
       </c>
       <c r="M47" s="11">
-        <v>79247903</v>
+        <v>93648427</v>
       </c>
       <c r="N47" s="11">
-        <v>93648427</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>87728875</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>27</v>
       </c>
@@ -2156,37 +2156,37 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>383637</v>
+        <v>270120</v>
       </c>
       <c r="F48" s="13">
-        <v>270120</v>
+        <v>961750</v>
       </c>
       <c r="G48" s="13">
-        <v>961750</v>
+        <v>94394</v>
       </c>
       <c r="H48" s="13">
-        <v>94394</v>
+        <v>163980</v>
       </c>
       <c r="I48" s="13">
-        <v>163980</v>
+        <v>217402</v>
       </c>
       <c r="J48" s="13">
-        <v>217402</v>
+        <v>1313381</v>
       </c>
       <c r="K48" s="13">
-        <v>1313381</v>
+        <v>720043</v>
       </c>
       <c r="L48" s="13">
-        <v>720043</v>
+        <v>184512</v>
       </c>
       <c r="M48" s="13">
-        <v>184512</v>
+        <v>363763</v>
       </c>
       <c r="N48" s="13">
-        <v>363763</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1354221</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>28</v>
       </c>
@@ -2195,37 +2195,37 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>5550729</v>
+        <v>10015916</v>
       </c>
       <c r="F49" s="11">
-        <v>10015916</v>
+        <v>11260830</v>
       </c>
       <c r="G49" s="11">
-        <v>11260830</v>
+        <v>13305642</v>
       </c>
       <c r="H49" s="11">
-        <v>13305642</v>
+        <v>22379409</v>
       </c>
       <c r="I49" s="11">
-        <v>22379409</v>
+        <v>28914189</v>
       </c>
       <c r="J49" s="11">
-        <v>28914189</v>
+        <v>20270748</v>
       </c>
       <c r="K49" s="11">
-        <v>20270748</v>
+        <v>39144419</v>
       </c>
       <c r="L49" s="11">
-        <v>39144419</v>
+        <v>36956771</v>
       </c>
       <c r="M49" s="11">
-        <v>36956771</v>
+        <v>28123470</v>
       </c>
       <c r="N49" s="11">
-        <v>28123470</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29230657</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>29</v>
       </c>
@@ -2234,37 +2234,37 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>9443120</v>
+        <v>12814158</v>
       </c>
       <c r="F50" s="13">
-        <v>12814158</v>
+        <v>18442886</v>
       </c>
       <c r="G50" s="13">
-        <v>18442886</v>
+        <v>16307248</v>
       </c>
       <c r="H50" s="13">
-        <v>16307248</v>
+        <v>18631737</v>
       </c>
       <c r="I50" s="13">
-        <v>18631737</v>
+        <v>24005295</v>
       </c>
       <c r="J50" s="13">
-        <v>24005295</v>
+        <v>24402241</v>
       </c>
       <c r="K50" s="13">
-        <v>24402241</v>
+        <v>31605000</v>
       </c>
       <c r="L50" s="13">
-        <v>31605000</v>
+        <v>33319332</v>
       </c>
       <c r="M50" s="13">
-        <v>33319332</v>
+        <v>25845943</v>
       </c>
       <c r="N50" s="13">
-        <v>25845943</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25269124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>30</v>
       </c>
@@ -2273,74 +2273,74 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>64268213</v>
+        <v>92921691</v>
       </c>
       <c r="F51" s="11">
-        <v>92921691</v>
+        <v>128340960</v>
       </c>
       <c r="G51" s="11">
-        <v>128340960</v>
+        <v>104965137</v>
       </c>
       <c r="H51" s="11">
-        <v>104965137</v>
+        <v>107934194</v>
       </c>
       <c r="I51" s="11">
-        <v>107934194</v>
+        <v>167348104</v>
       </c>
       <c r="J51" s="11">
-        <v>167348104</v>
+        <v>206613279</v>
       </c>
       <c r="K51" s="11">
-        <v>206613279</v>
+        <v>287478835</v>
       </c>
       <c r="L51" s="11">
-        <v>287478835</v>
+        <v>288733667</v>
       </c>
       <c r="M51" s="11">
-        <v>288733667</v>
+        <v>300434415</v>
       </c>
       <c r="N51" s="11">
-        <v>300434415</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>226223788</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
-        <v>134775824</v>
+        <v>198132171</v>
       </c>
       <c r="F52" s="15">
-        <v>198132171</v>
+        <v>318788584</v>
       </c>
       <c r="G52" s="15">
-        <v>318788584</v>
+        <v>246141824</v>
       </c>
       <c r="H52" s="15">
-        <v>246141824</v>
+        <v>262090687</v>
       </c>
       <c r="I52" s="15">
-        <v>262090687</v>
+        <v>425188986</v>
       </c>
       <c r="J52" s="15">
-        <v>425188986</v>
+        <v>478985412</v>
       </c>
       <c r="K52" s="15">
-        <v>478985412</v>
+        <v>580668052</v>
       </c>
       <c r="L52" s="15">
-        <v>580668052</v>
+        <v>586359486</v>
       </c>
       <c r="M52" s="15">
-        <v>586359486</v>
+        <v>560360321</v>
       </c>
       <c r="N52" s="15">
-        <v>560360321</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>473728011</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>43</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>27</v>
       </c>
@@ -2383,8 +2383,8 @@
       <c r="J54" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>22</v>
+      <c r="K54" s="11">
+        <v>0</v>
       </c>
       <c r="L54" s="11">
         <v>0</v>
@@ -2392,11 +2392,11 @@
       <c r="M54" s="11">
         <v>0</v>
       </c>
-      <c r="N54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N54" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
         <v>44</v>
       </c>
@@ -2450,7 +2450,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
         <v>35</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>36</v>
       </c>
@@ -2501,8 +2501,8 @@
       <c r="F58" s="15">
         <v>0</v>
       </c>
-      <c r="G58" s="15">
-        <v>0</v>
+      <c r="G58" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>22</v>
@@ -2526,7 +2526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="18" t="s">
         <v>38</v>
       </c>
@@ -2540,17 +2540,17 @@
       <c r="F59" s="19">
         <v>0</v>
       </c>
-      <c r="G59" s="19">
-        <v>0</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" s="19">
-        <v>0</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>22</v>
+      <c r="G59" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="19">
+        <v>0</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="19">
+        <v>0</v>
       </c>
       <c r="K59" s="19">
         <v>0</v>
@@ -2565,44 +2565,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15">
-        <v>134775824</v>
+        <v>198132171</v>
       </c>
       <c r="F60" s="15">
-        <v>198132171</v>
+        <v>318788584</v>
       </c>
       <c r="G60" s="15">
-        <v>318788584</v>
+        <v>246141824</v>
       </c>
       <c r="H60" s="15">
-        <v>246141824</v>
+        <v>262090687</v>
       </c>
       <c r="I60" s="15">
-        <v>262090687</v>
+        <v>425188986</v>
       </c>
       <c r="J60" s="15">
-        <v>425188986</v>
+        <v>478985412</v>
       </c>
       <c r="K60" s="15">
-        <v>478985412</v>
+        <v>580668052</v>
       </c>
       <c r="L60" s="15">
-        <v>580668052</v>
+        <v>586359486</v>
       </c>
       <c r="M60" s="15">
-        <v>586359486</v>
+        <v>560360321</v>
       </c>
       <c r="N60" s="15">
-        <v>560360321</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>473728011</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2617,7 +2617,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2632,7 +2632,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2647,7 +2647,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>45</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2699,7 +2699,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>46</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>16</v>
       </c>
@@ -2725,37 +2725,37 @@
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
-        <v>31185248</v>
+        <v>42249293</v>
       </c>
       <c r="F67" s="11">
-        <v>42249293</v>
+        <v>56990801</v>
       </c>
       <c r="G67" s="11">
-        <v>56990801</v>
+        <v>62136219</v>
       </c>
       <c r="H67" s="11">
-        <v>62136219</v>
+        <v>64445444</v>
       </c>
       <c r="I67" s="11">
-        <v>64445444</v>
+        <v>81407234</v>
       </c>
       <c r="J67" s="11">
-        <v>81407234</v>
+        <v>82121861</v>
       </c>
       <c r="K67" s="11">
-        <v>82121861</v>
+        <v>94302081</v>
       </c>
       <c r="L67" s="11">
-        <v>94302081</v>
+        <v>82777225</v>
       </c>
       <c r="M67" s="11">
-        <v>82777225</v>
+        <v>88818970</v>
       </c>
       <c r="N67" s="11">
-        <v>88818970</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>89884396</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>18</v>
       </c>
@@ -2764,37 +2764,37 @@
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>45199503</v>
+        <v>67432367</v>
       </c>
       <c r="F68" s="13">
-        <v>67432367</v>
+        <v>66451086</v>
       </c>
       <c r="G68" s="13">
-        <v>66451086</v>
+        <v>92852351</v>
       </c>
       <c r="H68" s="13">
-        <v>92852351</v>
+        <v>114633999</v>
       </c>
       <c r="I68" s="13">
-        <v>114633999</v>
+        <v>115801651</v>
       </c>
       <c r="J68" s="13">
-        <v>115801651</v>
+        <v>168847803</v>
       </c>
       <c r="K68" s="13">
-        <v>168847803</v>
+        <v>216931717</v>
       </c>
       <c r="L68" s="13">
-        <v>216931717</v>
+        <v>210141753</v>
       </c>
       <c r="M68" s="13">
-        <v>210141753</v>
+        <v>199128429</v>
       </c>
       <c r="N68" s="13">
-        <v>199128429</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>193556458</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>19</v>
       </c>
@@ -2803,37 +2803,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>13478518</v>
+        <v>25642348</v>
       </c>
       <c r="F69" s="11">
-        <v>25642348</v>
+        <v>36652279</v>
       </c>
       <c r="G69" s="11">
-        <v>36652279</v>
+        <v>64222520</v>
       </c>
       <c r="H69" s="11">
-        <v>64222520</v>
+        <v>33108357</v>
       </c>
       <c r="I69" s="11">
-        <v>33108357</v>
+        <v>46218712</v>
       </c>
       <c r="J69" s="11">
-        <v>46218712</v>
+        <v>69350660</v>
       </c>
       <c r="K69" s="11">
-        <v>69350660</v>
+        <v>98879703</v>
       </c>
       <c r="L69" s="11">
-        <v>98879703</v>
+        <v>64625788</v>
       </c>
       <c r="M69" s="11">
-        <v>64625788</v>
+        <v>32485932</v>
       </c>
       <c r="N69" s="11">
-        <v>32485932</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>41020810</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>20</v>
       </c>
@@ -2842,37 +2842,37 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>28190285</v>
+        <v>49789914</v>
       </c>
       <c r="F70" s="13">
-        <v>49789914</v>
+        <v>35486614</v>
       </c>
       <c r="G70" s="13">
-        <v>35486614</v>
+        <v>59550688</v>
       </c>
       <c r="H70" s="13">
-        <v>59550688</v>
+        <v>77363849</v>
       </c>
       <c r="I70" s="13">
-        <v>77363849</v>
+        <v>94423487</v>
       </c>
       <c r="J70" s="13">
-        <v>94423487</v>
+        <v>106560347</v>
       </c>
       <c r="K70" s="13">
-        <v>106560347</v>
+        <v>107388432</v>
       </c>
       <c r="L70" s="13">
-        <v>107388432</v>
+        <v>86745634</v>
       </c>
       <c r="M70" s="13">
-        <v>86745634</v>
+        <v>84781622</v>
       </c>
       <c r="N70" s="13">
-        <v>84781622</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>90323023</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>21</v>
       </c>
@@ -2892,15 +2892,15 @@
       <c r="H71" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I71" s="11" t="s">
-        <v>22</v>
+      <c r="I71" s="11">
+        <v>109143791</v>
       </c>
       <c r="J71" s="11">
-        <v>109143791</v>
-      </c>
-      <c r="K71" s="11">
         <v>115007843</v>
       </c>
+      <c r="K71" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="L71" s="11" t="s">
         <v>22</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>23</v>
       </c>
@@ -2920,37 +2920,37 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>34958537</v>
+        <v>54747321</v>
       </c>
       <c r="F72" s="13">
-        <v>54747321</v>
+        <v>75854392</v>
       </c>
       <c r="G72" s="13">
-        <v>75854392</v>
+        <v>81473475</v>
       </c>
       <c r="H72" s="13">
-        <v>81473475</v>
+        <v>77504785</v>
       </c>
       <c r="I72" s="13">
-        <v>77504785</v>
+        <v>90651163</v>
       </c>
       <c r="J72" s="13">
-        <v>90651163</v>
+        <v>114603386</v>
       </c>
       <c r="K72" s="13">
-        <v>114603386</v>
+        <v>126239768</v>
       </c>
       <c r="L72" s="13">
-        <v>126239768</v>
+        <v>119363946</v>
       </c>
       <c r="M72" s="13">
-        <v>119363946</v>
+        <v>115683528</v>
       </c>
       <c r="N72" s="13">
-        <v>115683528</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>117337698</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>24</v>
       </c>
@@ -2959,37 +2959,37 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>44669735</v>
+        <v>61268554</v>
       </c>
       <c r="F73" s="11">
-        <v>61268554</v>
+        <v>77113736</v>
       </c>
       <c r="G73" s="11">
-        <v>77113736</v>
+        <v>82043639</v>
       </c>
       <c r="H73" s="11">
-        <v>82043639</v>
+        <v>94754425</v>
       </c>
       <c r="I73" s="11">
-        <v>94754425</v>
+        <v>113483839</v>
       </c>
       <c r="J73" s="11">
-        <v>113483839</v>
+        <v>110740864</v>
       </c>
       <c r="K73" s="11">
-        <v>110740864</v>
+        <v>173492308</v>
       </c>
       <c r="L73" s="11">
-        <v>173492308</v>
+        <v>188904110</v>
       </c>
       <c r="M73" s="11">
-        <v>188904110</v>
+        <v>199052632</v>
       </c>
       <c r="N73" s="11">
-        <v>199052632</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>195091603</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>25</v>
       </c>
@@ -2998,37 +2998,37 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>35120673</v>
+        <v>52171058</v>
       </c>
       <c r="F74" s="13">
-        <v>52171058</v>
+        <v>58092283</v>
       </c>
       <c r="G74" s="13">
-        <v>58092283</v>
+        <v>76848432</v>
       </c>
       <c r="H74" s="13">
-        <v>76848432</v>
+        <v>90751957</v>
       </c>
       <c r="I74" s="13">
-        <v>90751957</v>
+        <v>97615779</v>
       </c>
       <c r="J74" s="13">
-        <v>97615779</v>
+        <v>110770629</v>
       </c>
       <c r="K74" s="13">
-        <v>110770629</v>
+        <v>146181031</v>
       </c>
       <c r="L74" s="13">
-        <v>146181031</v>
+        <v>120467141</v>
       </c>
       <c r="M74" s="13">
-        <v>120467141</v>
+        <v>88375148</v>
       </c>
       <c r="N74" s="13">
-        <v>88375148</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>96135223</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>26</v>
       </c>
@@ -3037,37 +3037,37 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>37488746</v>
+        <v>66500499</v>
       </c>
       <c r="F75" s="11">
-        <v>66500499</v>
+        <v>83473254</v>
       </c>
       <c r="G75" s="11">
-        <v>83473254</v>
+        <v>92795740</v>
       </c>
       <c r="H75" s="11">
-        <v>92795740</v>
+        <v>110923944</v>
       </c>
       <c r="I75" s="11">
-        <v>110923944</v>
+        <v>129084480</v>
       </c>
       <c r="J75" s="11">
-        <v>129084480</v>
+        <v>153427827</v>
       </c>
       <c r="K75" s="11">
-        <v>153427827</v>
+        <v>197434381</v>
       </c>
       <c r="L75" s="11">
-        <v>197434381</v>
+        <v>168775949</v>
       </c>
       <c r="M75" s="11">
-        <v>168775949</v>
+        <v>142806600</v>
       </c>
       <c r="N75" s="11">
-        <v>142806600</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>158276232</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>27</v>
       </c>
@@ -3076,37 +3076,37 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>44964487</v>
+        <v>64192015</v>
       </c>
       <c r="F76" s="13">
-        <v>64192015</v>
+        <v>75573629</v>
       </c>
       <c r="G76" s="13">
-        <v>75573629</v>
+        <v>94488488</v>
       </c>
       <c r="H76" s="13">
-        <v>94488488</v>
+        <v>103457413</v>
       </c>
       <c r="I76" s="13">
-        <v>103457413</v>
+        <v>128945433</v>
       </c>
       <c r="J76" s="13">
-        <v>128945433</v>
+        <v>147438370</v>
       </c>
       <c r="K76" s="13">
-        <v>147438370</v>
+        <v>224732522</v>
       </c>
       <c r="L76" s="13">
-        <v>224732522</v>
+        <v>195250794</v>
       </c>
       <c r="M76" s="13">
-        <v>195250794</v>
+        <v>201085130</v>
       </c>
       <c r="N76" s="13">
-        <v>201085130</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>192908974</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>28</v>
       </c>
@@ -3115,37 +3115,37 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>44801519</v>
+        <v>65187415</v>
       </c>
       <c r="F77" s="11">
-        <v>65187415</v>
+        <v>74393729</v>
       </c>
       <c r="G77" s="11">
-        <v>74393729</v>
+        <v>93845777</v>
       </c>
       <c r="H77" s="11">
-        <v>93845777</v>
+        <v>103153259</v>
       </c>
       <c r="I77" s="11">
-        <v>103153259</v>
+        <v>127476365</v>
       </c>
       <c r="J77" s="11">
-        <v>127476365</v>
+        <v>129817532</v>
       </c>
       <c r="K77" s="11">
-        <v>129817532</v>
+        <v>217912082</v>
       </c>
       <c r="L77" s="11">
-        <v>217912082</v>
+        <v>232739914</v>
       </c>
       <c r="M77" s="11">
-        <v>232739914</v>
+        <v>198612076</v>
       </c>
       <c r="N77" s="11">
-        <v>198612076</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>193149441</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>29</v>
       </c>
@@ -3154,37 +3154,37 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>41988830</v>
+        <v>59833669</v>
       </c>
       <c r="F78" s="13">
-        <v>59833669</v>
+        <v>80540841</v>
       </c>
       <c r="G78" s="13">
-        <v>80540841</v>
+        <v>86799317</v>
       </c>
       <c r="H78" s="13">
-        <v>86799317</v>
+        <v>93566166</v>
       </c>
       <c r="I78" s="13">
-        <v>93566166</v>
+        <v>109531696</v>
       </c>
       <c r="J78" s="13">
-        <v>109531696</v>
+        <v>112340900</v>
       </c>
       <c r="K78" s="13">
-        <v>112340900</v>
+        <v>154852081</v>
       </c>
       <c r="L78" s="13">
-        <v>154852081</v>
+        <v>141719864</v>
       </c>
       <c r="M78" s="13">
-        <v>141719864</v>
+        <v>111568432</v>
       </c>
       <c r="N78" s="13">
-        <v>111568432</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>105847243</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>30</v>
       </c>
@@ -3193,37 +3193,37 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>52712954</v>
+        <v>73746789</v>
       </c>
       <c r="F79" s="11">
-        <v>73746789</v>
+        <v>87942534</v>
       </c>
       <c r="G79" s="11">
-        <v>87942534</v>
+        <v>94926215</v>
       </c>
       <c r="H79" s="11">
-        <v>94926215</v>
+        <v>106938384</v>
       </c>
       <c r="I79" s="11">
-        <v>106938384</v>
+        <v>127555603</v>
       </c>
       <c r="J79" s="11">
-        <v>127555603</v>
+        <v>161986869</v>
       </c>
       <c r="K79" s="11">
-        <v>161986869</v>
+        <v>230754341</v>
       </c>
       <c r="L79" s="11">
-        <v>230754341</v>
+        <v>216385581</v>
       </c>
       <c r="M79" s="11">
-        <v>216385581</v>
+        <v>207345723</v>
       </c>
       <c r="N79" s="11">
-        <v>207345723</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>183566734</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>48</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>27</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3294,7 +3294,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3309,7 +3309,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3324,7 +3324,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
         <v>49</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3376,7 +3376,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>50</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>16</v>
       </c>
@@ -3402,37 +3402,37 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>-8518928</v>
+        <v>-8834993</v>
       </c>
       <c r="F88" s="11">
-        <v>-8834993</v>
+        <v>-12488833</v>
       </c>
       <c r="G88" s="11">
-        <v>-12488833</v>
+        <v>-12686145</v>
       </c>
       <c r="H88" s="11">
-        <v>-12686145</v>
+        <v>-11046328</v>
       </c>
       <c r="I88" s="11">
-        <v>-11046328</v>
+        <v>-14851580</v>
       </c>
       <c r="J88" s="11">
-        <v>-14851580</v>
+        <v>-17351741</v>
       </c>
       <c r="K88" s="11">
-        <v>-17351741</v>
+        <v>-14969658</v>
       </c>
       <c r="L88" s="11">
-        <v>-14969658</v>
+        <v>-21813666</v>
       </c>
       <c r="M88" s="11">
-        <v>-21813666</v>
+        <v>-19945171</v>
       </c>
       <c r="N88" s="11">
-        <v>-19945171</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-18792089</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>18</v>
       </c>
@@ -3441,37 +3441,37 @@
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>-555721</v>
+        <v>-2257527</v>
       </c>
       <c r="F89" s="13">
-        <v>-2257527</v>
+        <v>-2786841</v>
       </c>
       <c r="G89" s="13">
-        <v>-2786841</v>
+        <v>-634753</v>
       </c>
       <c r="H89" s="13">
-        <v>-634753</v>
+        <v>-239120</v>
       </c>
       <c r="I89" s="13">
-        <v>-239120</v>
+        <v>-2743811</v>
       </c>
       <c r="J89" s="13">
-        <v>-2743811</v>
+        <v>-4551769</v>
       </c>
       <c r="K89" s="13">
-        <v>-4551769</v>
+        <v>-1399721</v>
       </c>
       <c r="L89" s="13">
-        <v>-1399721</v>
+        <v>-1699571</v>
       </c>
       <c r="M89" s="13">
-        <v>-1699571</v>
+        <v>-2689353</v>
       </c>
       <c r="N89" s="13">
-        <v>-2689353</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4331910</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>19</v>
       </c>
@@ -3480,37 +3480,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>-89025</v>
+        <v>-134192</v>
       </c>
       <c r="F90" s="11">
-        <v>-134192</v>
+        <v>-243087</v>
       </c>
       <c r="G90" s="11">
-        <v>-243087</v>
+        <v>-176822</v>
       </c>
       <c r="H90" s="11">
-        <v>-176822</v>
+        <v>-422272</v>
       </c>
       <c r="I90" s="11">
-        <v>-422272</v>
+        <v>-335616</v>
       </c>
       <c r="J90" s="11">
-        <v>-335616</v>
+        <v>-525698</v>
       </c>
       <c r="K90" s="11">
-        <v>-525698</v>
+        <v>-612222</v>
       </c>
       <c r="L90" s="11">
-        <v>-612222</v>
+        <v>-414768</v>
       </c>
       <c r="M90" s="11">
-        <v>-414768</v>
+        <v>-578735</v>
       </c>
       <c r="N90" s="11">
-        <v>-578735</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-292940</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>20</v>
       </c>
@@ -3519,37 +3519,37 @@
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
-        <v>-3455094</v>
+        <v>-6110671</v>
       </c>
       <c r="F91" s="13">
-        <v>-6110671</v>
+        <v>-5758309</v>
       </c>
       <c r="G91" s="13">
-        <v>-5758309</v>
+        <v>-6653667</v>
       </c>
       <c r="H91" s="13">
-        <v>-6653667</v>
+        <v>-8145552</v>
       </c>
       <c r="I91" s="13">
-        <v>-8145552</v>
+        <v>-11940979</v>
       </c>
       <c r="J91" s="13">
-        <v>-11940979</v>
+        <v>-10239109</v>
       </c>
       <c r="K91" s="13">
-        <v>-10239109</v>
+        <v>-10025130</v>
       </c>
       <c r="L91" s="13">
-        <v>-10025130</v>
+        <v>-10796196</v>
       </c>
       <c r="M91" s="13">
-        <v>-10796196</v>
+        <v>-11616676</v>
       </c>
       <c r="N91" s="13">
-        <v>-11616676</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9502774</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>21</v>
       </c>
@@ -3569,14 +3569,14 @@
       <c r="H92" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I92" s="11" t="s">
-        <v>22</v>
+      <c r="I92" s="11">
+        <v>-13919</v>
       </c>
       <c r="J92" s="11">
-        <v>-13919</v>
+        <v>-78385</v>
       </c>
       <c r="K92" s="11">
-        <v>-78385</v>
+        <v>0</v>
       </c>
       <c r="L92" s="11">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>23</v>
       </c>
@@ -3597,37 +3597,37 @@
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13">
-        <v>-778850</v>
+        <v>-2196774</v>
       </c>
       <c r="F93" s="13">
-        <v>-2196774</v>
+        <v>-2282677</v>
       </c>
       <c r="G93" s="13">
-        <v>-2282677</v>
+        <v>-1574488</v>
       </c>
       <c r="H93" s="13">
-        <v>-1574488</v>
+        <v>-8919850</v>
       </c>
       <c r="I93" s="13">
-        <v>-8919850</v>
+        <v>-10384210</v>
       </c>
       <c r="J93" s="13">
-        <v>-10384210</v>
+        <v>-10235167</v>
       </c>
       <c r="K93" s="13">
-        <v>-10235167</v>
+        <v>-9005949</v>
       </c>
       <c r="L93" s="13">
-        <v>-9005949</v>
+        <v>-8404073</v>
       </c>
       <c r="M93" s="13">
-        <v>-8404073</v>
+        <v>-8708667</v>
       </c>
       <c r="N93" s="13">
-        <v>-8708667</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6249831</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>24</v>
       </c>
@@ -3636,37 +3636,37 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>-147894</v>
+        <v>-225971</v>
       </c>
       <c r="F94" s="11">
-        <v>-225971</v>
+        <v>-203046</v>
       </c>
       <c r="G94" s="11">
-        <v>-203046</v>
+        <v>-132312</v>
       </c>
       <c r="H94" s="11">
-        <v>-132312</v>
+        <v>-41176</v>
       </c>
       <c r="I94" s="11">
-        <v>-41176</v>
+        <v>-114692</v>
       </c>
       <c r="J94" s="11">
-        <v>-114692</v>
+        <v>-34674</v>
       </c>
       <c r="K94" s="11">
-        <v>-34674</v>
+        <v>-18719</v>
       </c>
       <c r="L94" s="11">
-        <v>-18719</v>
+        <v>-49769</v>
       </c>
       <c r="M94" s="11">
-        <v>-49769</v>
+        <v>-31170</v>
       </c>
       <c r="N94" s="11">
-        <v>-31170</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-45559</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>25</v>
       </c>
@@ -3675,37 +3675,37 @@
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>-11531691</v>
+        <v>-13890398</v>
       </c>
       <c r="F95" s="13">
-        <v>-13890398</v>
+        <v>-58296068</v>
       </c>
       <c r="G95" s="13">
-        <v>-58296068</v>
+        <v>-27419647</v>
       </c>
       <c r="H95" s="13">
-        <v>-27419647</v>
+        <v>-27035252</v>
       </c>
       <c r="I95" s="13">
-        <v>-27035252</v>
+        <v>-76007793</v>
       </c>
       <c r="J95" s="13">
-        <v>-76007793</v>
+        <v>-78538228</v>
       </c>
       <c r="K95" s="13">
-        <v>-78538228</v>
+        <v>-32917866</v>
       </c>
       <c r="L95" s="13">
-        <v>-32917866</v>
+        <v>-96475354</v>
       </c>
       <c r="M95" s="13">
-        <v>-96475354</v>
+        <v>-64897388</v>
       </c>
       <c r="N95" s="13">
-        <v>-64897388</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-52080931</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>26</v>
       </c>
@@ -3714,37 +3714,37 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
-        <v>-24907191</v>
+        <v>-37588925</v>
       </c>
       <c r="F96" s="11">
-        <v>-37588925</v>
+        <v>-42237649</v>
       </c>
       <c r="G96" s="11">
-        <v>-42237649</v>
+        <v>-48975397</v>
       </c>
       <c r="H96" s="11">
-        <v>-48975397</v>
+        <v>-43919749</v>
       </c>
       <c r="I96" s="11">
-        <v>-43919749</v>
+        <v>-65150496</v>
       </c>
       <c r="J96" s="11">
-        <v>-65150496</v>
+        <v>-81509160</v>
       </c>
       <c r="K96" s="11">
-        <v>-81509160</v>
+        <v>-86593191</v>
       </c>
       <c r="L96" s="11">
-        <v>-86593191</v>
+        <v>-67355041</v>
       </c>
       <c r="M96" s="11">
-        <v>-67355041</v>
+        <v>-98607451</v>
       </c>
       <c r="N96" s="11">
-        <v>-98607451</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-77920743</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>27</v>
       </c>
@@ -3753,37 +3753,37 @@
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13">
-        <v>-323555</v>
+        <v>-180378</v>
       </c>
       <c r="F97" s="13">
-        <v>-180378</v>
+        <v>-702874</v>
       </c>
       <c r="G97" s="13">
-        <v>-702874</v>
+        <v>-57388</v>
       </c>
       <c r="H97" s="13">
-        <v>-57388</v>
+        <v>-89649</v>
       </c>
       <c r="I97" s="13">
-        <v>-89649</v>
+        <v>-160055</v>
       </c>
       <c r="J97" s="13">
-        <v>-160055</v>
+        <v>-876112</v>
       </c>
       <c r="K97" s="13">
-        <v>-876112</v>
+        <v>-382883</v>
       </c>
       <c r="L97" s="13">
-        <v>-382883</v>
+        <v>-186032</v>
       </c>
       <c r="M97" s="13">
-        <v>-186032</v>
+        <v>-332633</v>
       </c>
       <c r="N97" s="13">
-        <v>-332633</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1119409</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>28</v>
       </c>
@@ -3792,37 +3792,37 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>-4643905</v>
+        <v>-7799849</v>
       </c>
       <c r="F98" s="11">
-        <v>-7799849</v>
+        <v>-9129070</v>
       </c>
       <c r="G98" s="11">
-        <v>-9129070</v>
+        <v>-10868375</v>
       </c>
       <c r="H98" s="11">
-        <v>-10868375</v>
+        <v>-19516971</v>
       </c>
       <c r="I98" s="11">
-        <v>-19516971</v>
+        <v>-25212878</v>
       </c>
       <c r="J98" s="11">
-        <v>-25212878</v>
+        <v>-23542254</v>
       </c>
       <c r="K98" s="11">
-        <v>-23542254</v>
+        <v>-24156500</v>
       </c>
       <c r="L98" s="11">
-        <v>-24156500</v>
+        <v>-29224257</v>
       </c>
       <c r="M98" s="11">
-        <v>-29224257</v>
+        <v>-29247938</v>
       </c>
       <c r="N98" s="11">
-        <v>-29247938</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-26035563</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>29</v>
       </c>
@@ -3831,37 +3831,37 @@
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
-        <v>-9524151</v>
+        <v>-11927743</v>
       </c>
       <c r="F99" s="13">
-        <v>-11927743</v>
+        <v>-17724031</v>
       </c>
       <c r="G99" s="13">
-        <v>-17724031</v>
+        <v>-14945841</v>
       </c>
       <c r="H99" s="13">
-        <v>-14945841</v>
+        <v>-16881341</v>
       </c>
       <c r="I99" s="13">
-        <v>-16881341</v>
+        <v>-22491385</v>
       </c>
       <c r="J99" s="13">
-        <v>-22491385</v>
+        <v>-23667674</v>
       </c>
       <c r="K99" s="13">
-        <v>-23667674</v>
+        <v>-23156178</v>
       </c>
       <c r="L99" s="13">
-        <v>-23156178</v>
+        <v>-29792471</v>
       </c>
       <c r="M99" s="13">
-        <v>-29792471</v>
+        <v>-27559696</v>
       </c>
       <c r="N99" s="13">
-        <v>-27559696</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-23264243</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>30</v>
       </c>
@@ -3870,74 +3870,74 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>-64511952</v>
+        <v>-86457597</v>
       </c>
       <c r="F100" s="11">
-        <v>-86457597</v>
+        <v>-106582294</v>
       </c>
       <c r="G100" s="11">
-        <v>-106582294</v>
+        <v>-97481089</v>
       </c>
       <c r="H100" s="11">
-        <v>-97481089</v>
+        <v>-96570941</v>
       </c>
       <c r="I100" s="11">
-        <v>-96570941</v>
+        <v>-153383930</v>
       </c>
       <c r="J100" s="11">
-        <v>-153383930</v>
+        <v>-187860887</v>
       </c>
       <c r="K100" s="11">
-        <v>-187860887</v>
+        <v>-261626850</v>
       </c>
       <c r="L100" s="11">
-        <v>-261626850</v>
+        <v>-265927750</v>
       </c>
       <c r="M100" s="11">
-        <v>-265927750</v>
+        <v>-248046561</v>
       </c>
       <c r="N100" s="11">
-        <v>-248046561</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-210369354</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>-128987957</v>
+        <v>-177605018</v>
       </c>
       <c r="F101" s="15">
-        <v>-177605018</v>
+        <v>-258434779</v>
       </c>
       <c r="G101" s="15">
-        <v>-258434779</v>
+        <v>-221605924</v>
       </c>
       <c r="H101" s="15">
-        <v>-221605924</v>
+        <v>-232828201</v>
       </c>
       <c r="I101" s="15">
-        <v>-232828201</v>
+        <v>-382791344</v>
       </c>
       <c r="J101" s="15">
-        <v>-382791344</v>
+        <v>-439010858</v>
       </c>
       <c r="K101" s="15">
-        <v>-439010858</v>
+        <v>-464864867</v>
       </c>
       <c r="L101" s="15">
-        <v>-464864867</v>
+        <v>-532138948</v>
       </c>
       <c r="M101" s="15">
-        <v>-532138948</v>
+        <v>-512261439</v>
       </c>
       <c r="N101" s="15">
-        <v>-512261439</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-430005346</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>52</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>27</v>
       </c>
@@ -3980,8 +3980,8 @@
       <c r="J103" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K103" s="11" t="s">
-        <v>22</v>
+      <c r="K103" s="11">
+        <v>0</v>
       </c>
       <c r="L103" s="11">
         <v>0</v>
@@ -3989,11 +3989,11 @@
       <c r="M103" s="11">
         <v>0</v>
       </c>
-      <c r="N103" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N103" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>53</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>54</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="18" t="s">
         <v>55</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>36</v>
       </c>
@@ -4098,8 +4098,8 @@
       <c r="F107" s="15">
         <v>0</v>
       </c>
-      <c r="G107" s="15">
-        <v>0</v>
+      <c r="G107" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H107" s="15" t="s">
         <v>22</v>
@@ -4123,7 +4123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>38</v>
       </c>
@@ -4137,17 +4137,17 @@
       <c r="F108" s="19">
         <v>0</v>
       </c>
-      <c r="G108" s="19">
-        <v>0</v>
-      </c>
-      <c r="H108" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I108" s="19">
-        <v>0</v>
-      </c>
-      <c r="J108" s="19" t="s">
-        <v>22</v>
+      <c r="G108" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="19">
+        <v>0</v>
+      </c>
+      <c r="I108" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" s="19">
+        <v>0</v>
       </c>
       <c r="K108" s="19">
         <v>0</v>
@@ -4162,44 +4162,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
-        <v>-128987957</v>
+        <v>-177605018</v>
       </c>
       <c r="F109" s="15">
-        <v>-177605018</v>
+        <v>-258434779</v>
       </c>
       <c r="G109" s="15">
-        <v>-258434779</v>
+        <v>-221605924</v>
       </c>
       <c r="H109" s="15">
-        <v>-221605924</v>
+        <v>-232828201</v>
       </c>
       <c r="I109" s="15">
-        <v>-232828201</v>
+        <v>-382791344</v>
       </c>
       <c r="J109" s="15">
-        <v>-382791344</v>
+        <v>-439010858</v>
       </c>
       <c r="K109" s="15">
-        <v>-439010858</v>
+        <v>-464864867</v>
       </c>
       <c r="L109" s="15">
-        <v>-464864867</v>
+        <v>-532138948</v>
       </c>
       <c r="M109" s="15">
-        <v>-532138948</v>
+        <v>-512261439</v>
       </c>
       <c r="N109" s="15">
-        <v>-512261439</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-430005346</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4214,7 +4214,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4229,7 +4229,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4244,7 +4244,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>56</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4296,7 +4296,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>57</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>16</v>
       </c>
@@ -4322,37 +4322,37 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>366061</v>
+        <v>1160725</v>
       </c>
       <c r="F116" s="11">
-        <v>1160725</v>
+        <v>1271710</v>
       </c>
       <c r="G116" s="11">
-        <v>1271710</v>
+        <v>2067541</v>
       </c>
       <c r="H116" s="11">
-        <v>2067541</v>
+        <v>1529556</v>
       </c>
       <c r="I116" s="11">
-        <v>1529556</v>
+        <v>2764050</v>
       </c>
       <c r="J116" s="11">
-        <v>2764050</v>
+        <v>2650188</v>
       </c>
       <c r="K116" s="11">
-        <v>2650188</v>
+        <v>4967688</v>
       </c>
       <c r="L116" s="11">
-        <v>4967688</v>
+        <v>561349</v>
       </c>
       <c r="M116" s="11">
-        <v>561349</v>
+        <v>4169357</v>
       </c>
       <c r="N116" s="11">
-        <v>4169357</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7541792</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>18</v>
       </c>
@@ -4361,37 +4361,37 @@
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13">
-        <v>336246</v>
+        <v>1087523</v>
       </c>
       <c r="F117" s="13">
-        <v>1087523</v>
+        <v>59259</v>
       </c>
       <c r="G117" s="13">
-        <v>59259</v>
+        <v>397858</v>
       </c>
       <c r="H117" s="13">
-        <v>397858</v>
+        <v>82543</v>
       </c>
       <c r="I117" s="13">
-        <v>82543</v>
+        <v>1042903</v>
       </c>
       <c r="J117" s="13">
-        <v>1042903</v>
+        <v>236417</v>
       </c>
       <c r="K117" s="13">
-        <v>236417</v>
+        <v>998893</v>
       </c>
       <c r="L117" s="13">
-        <v>998893</v>
+        <v>501874</v>
       </c>
       <c r="M117" s="13">
-        <v>501874</v>
+        <v>301556</v>
       </c>
       <c r="N117" s="13">
-        <v>301556</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>745463</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>19</v>
       </c>
@@ -4400,37 +4400,37 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>-4636</v>
+        <v>20457</v>
       </c>
       <c r="F118" s="11">
-        <v>20457</v>
+        <v>15898</v>
       </c>
       <c r="G118" s="11">
-        <v>15898</v>
+        <v>38773</v>
       </c>
       <c r="H118" s="11">
-        <v>38773</v>
+        <v>62633</v>
       </c>
       <c r="I118" s="11">
-        <v>62633</v>
+        <v>5247</v>
       </c>
       <c r="J118" s="11">
-        <v>5247</v>
+        <v>-16040</v>
       </c>
       <c r="K118" s="11">
-        <v>-16040</v>
+        <v>307557</v>
       </c>
       <c r="L118" s="11">
-        <v>307557</v>
+        <v>118524</v>
       </c>
       <c r="M118" s="11">
-        <v>118524</v>
+        <v>-168860</v>
       </c>
       <c r="N118" s="11">
-        <v>-168860</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30345</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>20</v>
       </c>
@@ -4439,37 +4439,37 @@
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13">
-        <v>298978</v>
+        <v>1073665</v>
       </c>
       <c r="F119" s="13">
-        <v>1073665</v>
+        <v>218240</v>
       </c>
       <c r="G119" s="13">
-        <v>218240</v>
+        <v>824768</v>
       </c>
       <c r="H119" s="13">
-        <v>824768</v>
+        <v>568712</v>
       </c>
       <c r="I119" s="13">
-        <v>568712</v>
+        <v>879842</v>
       </c>
       <c r="J119" s="13">
-        <v>879842</v>
+        <v>1536129</v>
       </c>
       <c r="K119" s="13">
-        <v>1536129</v>
+        <v>4634787</v>
       </c>
       <c r="L119" s="13">
-        <v>4634787</v>
+        <v>73032</v>
       </c>
       <c r="M119" s="13">
-        <v>73032</v>
+        <v>-1072640</v>
       </c>
       <c r="N119" s="13">
-        <v>-1072640</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>171454</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>21</v>
       </c>
@@ -4489,14 +4489,14 @@
       <c r="H120" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I120" s="11" t="s">
-        <v>22</v>
+      <c r="I120" s="11">
+        <v>2780</v>
       </c>
       <c r="J120" s="11">
-        <v>2780</v>
+        <v>9596</v>
       </c>
       <c r="K120" s="11">
-        <v>9596</v>
+        <v>0</v>
       </c>
       <c r="L120" s="11">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>23</v>
       </c>
@@ -4517,37 +4517,37 @@
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13">
-        <v>64280</v>
+        <v>393267</v>
       </c>
       <c r="F121" s="13">
-        <v>393267</v>
+        <v>962829</v>
       </c>
       <c r="G121" s="13">
-        <v>962829</v>
+        <v>594010</v>
       </c>
       <c r="H121" s="13">
-        <v>594010</v>
+        <v>774526</v>
       </c>
       <c r="I121" s="13">
-        <v>774526</v>
+        <v>769781</v>
       </c>
       <c r="J121" s="13">
-        <v>769781</v>
+        <v>162569</v>
       </c>
       <c r="K121" s="13">
-        <v>162569</v>
+        <v>2739399</v>
       </c>
       <c r="L121" s="13">
-        <v>2739399</v>
+        <v>4040812</v>
       </c>
       <c r="M121" s="13">
-        <v>4040812</v>
+        <v>-1010738</v>
       </c>
       <c r="N121" s="13">
-        <v>-1010738</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>677200</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>24</v>
       </c>
@@ -4556,37 +4556,37 @@
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>7378</v>
+        <v>42324</v>
       </c>
       <c r="F122" s="11">
-        <v>42324</v>
+        <v>-10493</v>
       </c>
       <c r="G122" s="11">
-        <v>-10493</v>
+        <v>1173</v>
       </c>
       <c r="H122" s="11">
-        <v>1173</v>
+        <v>1653</v>
       </c>
       <c r="I122" s="11">
-        <v>1653</v>
+        <v>1175</v>
       </c>
       <c r="J122" s="11">
-        <v>1175</v>
+        <v>-1341</v>
       </c>
       <c r="K122" s="11">
-        <v>-1341</v>
+        <v>3835</v>
       </c>
       <c r="L122" s="11">
-        <v>3835</v>
+        <v>5391</v>
       </c>
       <c r="M122" s="11">
-        <v>5391</v>
+        <v>-4696</v>
       </c>
       <c r="N122" s="11">
-        <v>-4696</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="12" t="s">
         <v>25</v>
       </c>
@@ -4595,37 +4595,37 @@
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13">
-        <v>1888199</v>
+        <v>2026783</v>
       </c>
       <c r="F123" s="13">
-        <v>2026783</v>
+        <v>17765320</v>
       </c>
       <c r="G123" s="13">
-        <v>17765320</v>
+        <v>3968019</v>
       </c>
       <c r="H123" s="13">
-        <v>3968019</v>
+        <v>4185327</v>
       </c>
       <c r="I123" s="13">
-        <v>4185327</v>
+        <v>11568008</v>
       </c>
       <c r="J123" s="13">
-        <v>11568008</v>
+        <v>6715279</v>
       </c>
       <c r="K123" s="13">
-        <v>6715279</v>
+        <v>16710594</v>
       </c>
       <c r="L123" s="13">
-        <v>16710594</v>
+        <v>2962922</v>
       </c>
       <c r="M123" s="13">
-        <v>2962922</v>
+        <v>1263164</v>
       </c>
       <c r="N123" s="13">
-        <v>1263164</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3453503</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>26</v>
       </c>
@@ -4634,37 +4634,37 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>2189225</v>
+        <v>5066091</v>
       </c>
       <c r="F124" s="11">
-        <v>5066091</v>
+        <v>15202885</v>
       </c>
       <c r="G124" s="11">
-        <v>15202885</v>
+        <v>5324030</v>
       </c>
       <c r="H124" s="11">
-        <v>5324030</v>
+        <v>6007118</v>
       </c>
       <c r="I124" s="11">
-        <v>6007118</v>
+        <v>6127114</v>
       </c>
       <c r="J124" s="11">
-        <v>6127114</v>
+        <v>12029035</v>
       </c>
       <c r="K124" s="11">
-        <v>12029035</v>
+        <v>35814546</v>
       </c>
       <c r="L124" s="11">
-        <v>35814546</v>
+        <v>11892862</v>
       </c>
       <c r="M124" s="11">
-        <v>11892862</v>
+        <v>-4959024</v>
       </c>
       <c r="N124" s="11">
-        <v>-4959024</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9808132</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>27</v>
       </c>
@@ -4673,37 +4673,37 @@
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
-        <v>60082</v>
+        <v>89742</v>
       </c>
       <c r="F125" s="13">
-        <v>89742</v>
+        <v>258876</v>
       </c>
       <c r="G125" s="13">
-        <v>258876</v>
+        <v>37006</v>
       </c>
       <c r="H125" s="13">
-        <v>37006</v>
+        <v>74331</v>
       </c>
       <c r="I125" s="13">
-        <v>74331</v>
+        <v>57347</v>
       </c>
       <c r="J125" s="13">
-        <v>57347</v>
+        <v>437269</v>
       </c>
       <c r="K125" s="13">
-        <v>437269</v>
+        <v>337160</v>
       </c>
       <c r="L125" s="13">
-        <v>337160</v>
+        <v>-1520</v>
       </c>
       <c r="M125" s="13">
-        <v>-1520</v>
+        <v>31130</v>
       </c>
       <c r="N125" s="13">
-        <v>31130</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>234812</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>28</v>
       </c>
@@ -4712,37 +4712,37 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>906824</v>
+        <v>2216067</v>
       </c>
       <c r="F126" s="11">
-        <v>2216067</v>
+        <v>2131760</v>
       </c>
       <c r="G126" s="11">
-        <v>2131760</v>
+        <v>2437267</v>
       </c>
       <c r="H126" s="11">
-        <v>2437267</v>
+        <v>2862438</v>
       </c>
       <c r="I126" s="11">
-        <v>2862438</v>
+        <v>3701311</v>
       </c>
       <c r="J126" s="11">
-        <v>3701311</v>
+        <v>-3271506</v>
       </c>
       <c r="K126" s="11">
-        <v>-3271506</v>
+        <v>14987919</v>
       </c>
       <c r="L126" s="11">
-        <v>14987919</v>
+        <v>7732514</v>
       </c>
       <c r="M126" s="11">
-        <v>7732514</v>
+        <v>-1124468</v>
       </c>
       <c r="N126" s="11">
-        <v>-1124468</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3195094</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>29</v>
       </c>
@@ -4751,37 +4751,37 @@
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>-81031</v>
+        <v>886415</v>
       </c>
       <c r="F127" s="13">
-        <v>886415</v>
+        <v>718855</v>
       </c>
       <c r="G127" s="13">
-        <v>718855</v>
+        <v>1361407</v>
       </c>
       <c r="H127" s="13">
-        <v>1361407</v>
+        <v>1750396</v>
       </c>
       <c r="I127" s="13">
-        <v>1750396</v>
+        <v>1513910</v>
       </c>
       <c r="J127" s="13">
-        <v>1513910</v>
+        <v>734567</v>
       </c>
       <c r="K127" s="13">
-        <v>734567</v>
+        <v>8448822</v>
       </c>
       <c r="L127" s="13">
-        <v>8448822</v>
+        <v>3526861</v>
       </c>
       <c r="M127" s="13">
-        <v>3526861</v>
+        <v>-1713753</v>
       </c>
       <c r="N127" s="13">
-        <v>-1713753</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2004881</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>30</v>
       </c>
@@ -4790,74 +4790,74 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>-243739</v>
+        <v>6464094</v>
       </c>
       <c r="F128" s="11">
-        <v>6464094</v>
+        <v>21758666</v>
       </c>
       <c r="G128" s="11">
-        <v>21758666</v>
+        <v>7484048</v>
       </c>
       <c r="H128" s="11">
-        <v>7484048</v>
+        <v>11363253</v>
       </c>
       <c r="I128" s="11">
-        <v>11363253</v>
+        <v>13964174</v>
       </c>
       <c r="J128" s="11">
-        <v>13964174</v>
+        <v>18752392</v>
       </c>
       <c r="K128" s="11">
-        <v>18752392</v>
+        <v>25851985</v>
       </c>
       <c r="L128" s="11">
-        <v>25851985</v>
+        <v>22805917</v>
       </c>
       <c r="M128" s="11">
-        <v>22805917</v>
+        <v>52387854</v>
       </c>
       <c r="N128" s="11">
-        <v>52387854</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15854434</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15">
-        <v>5787867</v>
+        <v>20527153</v>
       </c>
       <c r="F129" s="15">
-        <v>20527153</v>
+        <v>60353805</v>
       </c>
       <c r="G129" s="15">
-        <v>60353805</v>
+        <v>24535900</v>
       </c>
       <c r="H129" s="15">
-        <v>24535900</v>
+        <v>29262486</v>
       </c>
       <c r="I129" s="15">
-        <v>29262486</v>
+        <v>42397642</v>
       </c>
       <c r="J129" s="15">
-        <v>42397642</v>
+        <v>39974554</v>
       </c>
       <c r="K129" s="15">
-        <v>39974554</v>
+        <v>115803185</v>
       </c>
       <c r="L129" s="15">
-        <v>115803185</v>
+        <v>54220538</v>
       </c>
       <c r="M129" s="15">
-        <v>54220538</v>
+        <v>48098882</v>
       </c>
       <c r="N129" s="15">
-        <v>48098882</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43722665</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>59</v>
       </c>
@@ -4874,7 +4874,7 @@
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>27</v>
       </c>
@@ -4900,8 +4900,8 @@
       <c r="J131" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K131" s="11" t="s">
-        <v>22</v>
+      <c r="K131" s="11">
+        <v>0</v>
       </c>
       <c r="L131" s="11">
         <v>0</v>
@@ -4909,11 +4909,11 @@
       <c r="M131" s="11">
         <v>0</v>
       </c>
-      <c r="N131" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N131" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="s">
         <v>60</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="16" t="s">
         <v>61</v>
       </c>
@@ -4967,7 +4967,7 @@
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="18" t="s">
         <v>62</v>
       </c>
@@ -5004,41 +5004,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>5787867</v>
+        <v>20527153</v>
       </c>
       <c r="F135" s="15">
-        <v>20527153</v>
+        <v>60353805</v>
       </c>
       <c r="G135" s="15">
-        <v>60353805</v>
+        <v>24535900</v>
       </c>
       <c r="H135" s="15">
-        <v>24535900</v>
+        <v>29262486</v>
       </c>
       <c r="I135" s="15">
-        <v>29262486</v>
+        <v>42397642</v>
       </c>
       <c r="J135" s="15">
-        <v>42397642</v>
+        <v>39974554</v>
       </c>
       <c r="K135" s="15">
-        <v>39974554</v>
+        <v>115803185</v>
       </c>
       <c r="L135" s="15">
-        <v>115803185</v>
+        <v>54220538</v>
       </c>
       <c r="M135" s="15">
-        <v>54220538</v>
+        <v>48098882</v>
       </c>
       <c r="N135" s="15">
-        <v>48098882</v>
+        <v>43722665</v>
       </c>
     </row>
   </sheetData>
